--- a/bioSample/bioSample_2477.xlsx
+++ b/bioSample/bioSample_2477.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/bioSample/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8F4D3B-BBD4-9E44-B182-1A44E052FD00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="9480" yWindow="460" windowWidth="23060" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="55">
   <si>
     <t>harvestDate</t>
   </si>
@@ -28,21 +34,12 @@
     <t>experimentDesign</t>
   </si>
   <si>
-    <t>experimentObservations</t>
-  </si>
-  <si>
     <t>strain</t>
   </si>
   <si>
     <t>genotype</t>
   </si>
   <si>
-    <t>floodmedia</t>
-  </si>
-  <si>
-    <t>inductionDelay</t>
-  </si>
-  <si>
     <t>treatment</t>
   </si>
   <si>
@@ -55,9 +52,6 @@
     <t>08.30.17</t>
   </si>
   <si>
-    <t>Retrofitted_2477</t>
-  </si>
-  <si>
     <t>CNAG_00000</t>
   </si>
   <si>
@@ -122,13 +116,82 @@
   </si>
   <si>
     <t>37C.CO2</t>
+  </si>
+  <si>
+    <t>H.BROWN</t>
+  </si>
+  <si>
+    <t>90minuteinduction</t>
+  </si>
+  <si>
+    <t>KN99alpha</t>
+  </si>
+  <si>
+    <t>TDY2100</t>
+  </si>
+  <si>
+    <t>TDY2101</t>
+  </si>
+  <si>
+    <t>TDY2102</t>
+  </si>
+  <si>
+    <t>TDY2103</t>
+  </si>
+  <si>
+    <t>TDY2104</t>
+  </si>
+  <si>
+    <t>TDY2105</t>
+  </si>
+  <si>
+    <t>TDY2106</t>
+  </si>
+  <si>
+    <t>TDY2107</t>
+  </si>
+  <si>
+    <t>TDY2108</t>
+  </si>
+  <si>
+    <t>TDY2109</t>
+  </si>
+  <si>
+    <t>TDY2110</t>
+  </si>
+  <si>
+    <t>TDY2111</t>
+  </si>
+  <si>
+    <t>TDY2112</t>
+  </si>
+  <si>
+    <t>TDY2113</t>
+  </si>
+  <si>
+    <t>TDY2114</t>
+  </si>
+  <si>
+    <t>TDY2115</t>
+  </si>
+  <si>
+    <t>TDY2116</t>
+  </si>
+  <si>
+    <t>TDY2117</t>
+  </si>
+  <si>
+    <t>TDY2118</t>
+  </si>
+  <si>
+    <t>TDY2119</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,6 +254,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -237,7 +308,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -269,9 +340,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -303,6 +392,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -478,14 +585,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="17.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -513,496 +625,613 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
       <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2">
+        <v>90</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
         <v>35</v>
       </c>
-      <c r="K2">
-        <v>90</v>
-      </c>
-      <c r="L2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
+      <c r="F3" t="s">
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3">
-        <v>90</v>
-      </c>
-      <c r="L3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>31</v>
+      </c>
+      <c r="H3">
+        <v>90</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
       <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K4">
-        <v>90</v>
-      </c>
-      <c r="L4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>31</v>
+      </c>
+      <c r="H4">
+        <v>90</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
       <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5">
-        <v>90</v>
-      </c>
-      <c r="L5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>31</v>
+      </c>
+      <c r="H5">
+        <v>90</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
       <c r="G6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" t="s">
-        <v>35</v>
-      </c>
-      <c r="K6">
-        <v>90</v>
-      </c>
-      <c r="L6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>31</v>
+      </c>
+      <c r="H6">
+        <v>90</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
       <c r="G7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K7">
-        <v>90</v>
-      </c>
-      <c r="L7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>31</v>
+      </c>
+      <c r="H7">
+        <v>90</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
       <c r="G8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" t="s">
-        <v>35</v>
-      </c>
-      <c r="K8">
-        <v>90</v>
-      </c>
-      <c r="L8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>31</v>
+      </c>
+      <c r="H8">
+        <v>90</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
       <c r="G9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" t="s">
-        <v>35</v>
-      </c>
-      <c r="K9">
-        <v>90</v>
-      </c>
-      <c r="L9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>31</v>
+      </c>
+      <c r="H9">
+        <v>90</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
       <c r="G10" t="s">
-        <v>22</v>
-      </c>
-      <c r="J10" t="s">
-        <v>35</v>
-      </c>
-      <c r="K10">
-        <v>90</v>
-      </c>
-      <c r="L10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>31</v>
+      </c>
+      <c r="H10">
+        <v>90</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>19</v>
+      </c>
       <c r="G11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J11" t="s">
-        <v>35</v>
-      </c>
-      <c r="K11">
-        <v>90</v>
-      </c>
-      <c r="L11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>31</v>
+      </c>
+      <c r="H11">
+        <v>90</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>20</v>
+      </c>
       <c r="G12" t="s">
-        <v>24</v>
-      </c>
-      <c r="J12" t="s">
-        <v>35</v>
-      </c>
-      <c r="K12">
-        <v>90</v>
-      </c>
-      <c r="L12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>31</v>
+      </c>
+      <c r="H12">
+        <v>90</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
       <c r="G13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K13">
-        <v>90</v>
-      </c>
-      <c r="L13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>31</v>
+      </c>
+      <c r="H13">
+        <v>90</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C14">
         <v>13</v>
       </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" t="s">
+        <v>22</v>
+      </c>
       <c r="G14" t="s">
-        <v>26</v>
-      </c>
-      <c r="J14" t="s">
-        <v>35</v>
-      </c>
-      <c r="K14">
-        <v>90</v>
-      </c>
-      <c r="L14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>31</v>
+      </c>
+      <c r="H14">
+        <v>90</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C15">
         <v>14</v>
       </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" t="s">
+        <v>23</v>
+      </c>
       <c r="G15" t="s">
-        <v>27</v>
-      </c>
-      <c r="J15" t="s">
-        <v>35</v>
-      </c>
-      <c r="K15">
-        <v>90</v>
-      </c>
-      <c r="L15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>31</v>
+      </c>
+      <c r="H15">
+        <v>90</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C16">
         <v>15</v>
       </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" t="s">
+        <v>24</v>
+      </c>
       <c r="G16" t="s">
-        <v>28</v>
-      </c>
-      <c r="J16" t="s">
-        <v>35</v>
-      </c>
-      <c r="K16">
-        <v>90</v>
-      </c>
-      <c r="L16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>31</v>
+      </c>
+      <c r="H16">
+        <v>90</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C17">
         <v>16</v>
       </c>
+      <c r="D17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" t="s">
+        <v>25</v>
+      </c>
       <c r="G17" t="s">
-        <v>29</v>
-      </c>
-      <c r="J17" t="s">
-        <v>35</v>
-      </c>
-      <c r="K17">
-        <v>90</v>
-      </c>
-      <c r="L17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>31</v>
+      </c>
+      <c r="H17">
+        <v>90</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C18">
         <v>17</v>
       </c>
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" t="s">
+        <v>26</v>
+      </c>
       <c r="G18" t="s">
-        <v>30</v>
-      </c>
-      <c r="J18" t="s">
-        <v>35</v>
-      </c>
-      <c r="K18">
-        <v>90</v>
-      </c>
-      <c r="L18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>31</v>
+      </c>
+      <c r="H18">
+        <v>90</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C19">
         <v>18</v>
       </c>
+      <c r="D19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" t="s">
+        <v>27</v>
+      </c>
       <c r="G19" t="s">
         <v>31</v>
       </c>
-      <c r="J19" t="s">
-        <v>35</v>
-      </c>
-      <c r="K19">
-        <v>90</v>
-      </c>
-      <c r="L19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="H19">
+        <v>90</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C20">
         <v>19</v>
       </c>
+      <c r="D20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" t="s">
+        <v>28</v>
+      </c>
       <c r="G20" t="s">
-        <v>32</v>
-      </c>
-      <c r="J20" t="s">
-        <v>35</v>
-      </c>
-      <c r="K20">
-        <v>90</v>
-      </c>
-      <c r="L20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>31</v>
+      </c>
+      <c r="H20">
+        <v>90</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C21">
         <v>20</v>
       </c>
+      <c r="D21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" t="s">
+        <v>29</v>
+      </c>
       <c r="G21" t="s">
-        <v>33</v>
-      </c>
-      <c r="J21" t="s">
-        <v>35</v>
-      </c>
-      <c r="K21">
-        <v>90</v>
-      </c>
-      <c r="L21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>31</v>
+      </c>
+      <c r="H21">
+        <v>90</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C22">
         <v>21</v>
       </c>
+      <c r="D22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" t="s">
+        <v>30</v>
+      </c>
       <c r="G22" t="s">
-        <v>34</v>
-      </c>
-      <c r="J22" t="s">
-        <v>35</v>
-      </c>
-      <c r="K22">
-        <v>90</v>
-      </c>
-      <c r="L22">
+        <v>31</v>
+      </c>
+      <c r="H22">
+        <v>90</v>
+      </c>
+      <c r="I22">
         <v>2</v>
       </c>
     </row>

--- a/bioSample/bioSample_2477.xlsx
+++ b/bioSample/bioSample_2477.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/bioSample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1F5188-6E7E-BC48-89E8-57F860923ACB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C961B52-CE27-074E-AB74-EE1E0D2261C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -503,7 +503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G1" sqref="G1:H1048576"/>
     </sheetView>
   </sheetViews>

--- a/bioSample/bioSample_2477.xlsx
+++ b/bioSample/bioSample_2477.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/bioSample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74456F4A-EE1E-F140-8CAC-6D497C7F35D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7782AE88-03F0-3249-B2A6-A55F709D5B38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12700" yWindow="460" windowWidth="16380" windowHeight="12000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,9 +69,6 @@
     <t>CNAG_00000</t>
   </si>
   <si>
-    <t>37C.CO2</t>
-  </si>
-  <si>
     <t>TDY2100</t>
   </si>
   <si>
@@ -196,6 +193,9 @@
   </si>
   <si>
     <t>90minuteinduction</t>
+  </si>
+  <si>
+    <t>DMEM.37C.CO2</t>
   </si>
 </sst>
 </file>
@@ -548,7 +548,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D22"/>
+      <selection activeCell="G3" sqref="G3:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -608,7 +608,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -617,7 +617,7 @@
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="H2">
         <v>90</v>
@@ -637,16 +637,16 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="H3">
         <v>90</v>
@@ -655,7 +655,7 @@
         <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
@@ -669,16 +669,16 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
         <v>18</v>
       </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="H4">
         <v>90</v>
@@ -687,7 +687,7 @@
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
@@ -701,16 +701,16 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
         <v>20</v>
       </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="H5">
         <v>90</v>
@@ -719,7 +719,7 @@
         <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
@@ -733,16 +733,16 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
         <v>22</v>
       </c>
-      <c r="F6" t="s">
-        <v>23</v>
-      </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="H6">
         <v>90</v>
@@ -751,7 +751,7 @@
         <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
@@ -765,16 +765,16 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
         <v>24</v>
       </c>
-      <c r="F7" t="s">
-        <v>25</v>
-      </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="H7">
         <v>90</v>
@@ -783,7 +783,7 @@
         <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
@@ -797,16 +797,16 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
         <v>26</v>
       </c>
-      <c r="F8" t="s">
-        <v>27</v>
-      </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="H8">
         <v>90</v>
@@ -815,7 +815,7 @@
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
@@ -829,16 +829,16 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" t="s">
         <v>28</v>
       </c>
-      <c r="F9" t="s">
-        <v>29</v>
-      </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="H9">
         <v>90</v>
@@ -847,7 +847,7 @@
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
@@ -861,16 +861,16 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" t="s">
         <v>30</v>
       </c>
-      <c r="F10" t="s">
-        <v>31</v>
-      </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="H10">
         <v>90</v>
@@ -879,7 +879,7 @@
         <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
@@ -893,16 +893,16 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" t="s">
         <v>32</v>
       </c>
-      <c r="F11" t="s">
-        <v>33</v>
-      </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="H11">
         <v>90</v>
@@ -911,7 +911,7 @@
         <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
@@ -925,16 +925,16 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" t="s">
         <v>34</v>
       </c>
-      <c r="F12" t="s">
-        <v>35</v>
-      </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="H12">
         <v>90</v>
@@ -943,7 +943,7 @@
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
@@ -957,16 +957,16 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" t="s">
         <v>36</v>
       </c>
-      <c r="F13" t="s">
-        <v>37</v>
-      </c>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="H13">
         <v>90</v>
@@ -975,7 +975,7 @@
         <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
@@ -989,16 +989,16 @@
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" t="s">
         <v>38</v>
       </c>
-      <c r="F14" t="s">
-        <v>39</v>
-      </c>
       <c r="G14" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="H14">
         <v>90</v>
@@ -1007,7 +1007,7 @@
         <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
@@ -1021,16 +1021,16 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" t="s">
         <v>40</v>
       </c>
-      <c r="F15" t="s">
-        <v>41</v>
-      </c>
       <c r="G15" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="H15">
         <v>90</v>
@@ -1039,7 +1039,7 @@
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
@@ -1053,16 +1053,16 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" t="s">
         <v>42</v>
       </c>
-      <c r="F16" t="s">
-        <v>43</v>
-      </c>
       <c r="G16" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="H16">
         <v>90</v>
@@ -1071,7 +1071,7 @@
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
@@ -1085,16 +1085,16 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
         <v>44</v>
       </c>
-      <c r="F17" t="s">
-        <v>45</v>
-      </c>
       <c r="G17" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="H17">
         <v>90</v>
@@ -1103,7 +1103,7 @@
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
@@ -1117,16 +1117,16 @@
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" t="s">
         <v>46</v>
       </c>
-      <c r="F18" t="s">
-        <v>47</v>
-      </c>
       <c r="G18" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="H18">
         <v>90</v>
@@ -1135,7 +1135,7 @@
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
@@ -1149,16 +1149,16 @@
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" t="s">
         <v>48</v>
       </c>
-      <c r="F19" t="s">
-        <v>49</v>
-      </c>
       <c r="G19" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="H19">
         <v>90</v>
@@ -1167,7 +1167,7 @@
         <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
@@ -1181,16 +1181,16 @@
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" t="s">
         <v>50</v>
       </c>
-      <c r="F20" t="s">
-        <v>51</v>
-      </c>
       <c r="G20" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="H20">
         <v>90</v>
@@ -1199,7 +1199,7 @@
         <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
@@ -1213,16 +1213,16 @@
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" t="s">
         <v>52</v>
       </c>
-      <c r="F21" t="s">
-        <v>53</v>
-      </c>
       <c r="G21" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="H21">
         <v>90</v>
@@ -1231,7 +1231,7 @@
         <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
@@ -1245,16 +1245,16 @@
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E22" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" t="s">
         <v>54</v>
       </c>
-      <c r="F22" t="s">
-        <v>55</v>
-      </c>
       <c r="G22" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="H22">
         <v>90</v>
@@ -1263,7 +1263,7 @@
         <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
